--- a/ML_3/SMART_dataset.xlsx
+++ b/ML_3/SMART_dataset.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="255">
   <si>
     <t>date</t>
   </si>
@@ -789,36 +789,6 @@
   </si>
   <si>
     <t>ZA1082T6</t>
-  </si>
-  <si>
-    <t>ZA1082ZG</t>
-  </si>
-  <si>
-    <t>ZA10835M</t>
-  </si>
-  <si>
-    <t>ZA1083ZX</t>
-  </si>
-  <si>
-    <t>ZA1084DM</t>
-  </si>
-  <si>
-    <t>ZA1086BE</t>
-  </si>
-  <si>
-    <t>ZA108CVB</t>
-  </si>
-  <si>
-    <t>ZA108GNQ</t>
-  </si>
-  <si>
-    <t>ZA108GY7</t>
-  </si>
-  <si>
-    <t>ZA108J72</t>
-  </si>
-  <si>
-    <t>ZA108J7P</t>
   </si>
 </sst>
 </file>
@@ -1627,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GO60"/>
+  <dimension ref="A1:GO50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A60" sqref="A51:GU60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16759,2976 +16729,6 @@
         <v>544431214596</v>
       </c>
     </row>
-    <row r="51" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>45658</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D51" s="1">
-        <v>8001563222016</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0</v>
-      </c>
-      <c r="H51" s="1">
-        <v>1028</v>
-      </c>
-      <c r="I51" s="1">
-        <v>16</v>
-      </c>
-      <c r="J51" s="1">
-        <v>39</v>
-      </c>
-      <c r="K51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="1">
-        <v>82</v>
-      </c>
-      <c r="M51" s="1">
-        <v>159372448</v>
-      </c>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1">
-        <v>84</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>0</v>
-      </c>
-      <c r="R51" s="1">
-        <v>100</v>
-      </c>
-      <c r="S51" s="1">
-        <v>9</v>
-      </c>
-      <c r="T51" s="1">
-        <v>100</v>
-      </c>
-      <c r="U51" s="1">
-        <v>0</v>
-      </c>
-      <c r="V51" s="1">
-        <v>96</v>
-      </c>
-      <c r="W51" s="1">
-        <v>3883311959</v>
-      </c>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1">
-        <v>14</v>
-      </c>
-      <c r="AA51" s="1">
-        <v>75440</v>
-      </c>
-      <c r="AB51" s="1">
-        <v>100</v>
-      </c>
-      <c r="AC51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="1"/>
-      <c r="AE51" s="1"/>
-      <c r="AF51" s="1">
-        <v>100</v>
-      </c>
-      <c r="AG51" s="1">
-        <v>9</v>
-      </c>
-      <c r="AH51" s="1"/>
-      <c r="AI51" s="1"/>
-      <c r="AJ51" s="1"/>
-      <c r="AK51" s="1"/>
-      <c r="AL51" s="1"/>
-      <c r="AM51" s="1"/>
-      <c r="AN51" s="1"/>
-      <c r="AO51" s="1"/>
-      <c r="AP51" s="1"/>
-      <c r="AQ51" s="1"/>
-      <c r="AR51" s="1"/>
-      <c r="AS51" s="1"/>
-      <c r="AT51" s="1"/>
-      <c r="AU51" s="1"/>
-      <c r="AV51" s="1"/>
-      <c r="AW51" s="1"/>
-      <c r="AX51" s="1"/>
-      <c r="AY51" s="1"/>
-      <c r="AZ51" s="1"/>
-      <c r="BA51" s="1"/>
-      <c r="BB51" s="1"/>
-      <c r="BC51" s="1"/>
-      <c r="BD51" s="1"/>
-      <c r="BE51" s="1"/>
-      <c r="BF51" s="1"/>
-      <c r="BG51" s="1"/>
-      <c r="BH51" s="1"/>
-      <c r="BI51" s="1"/>
-      <c r="BJ51" s="1"/>
-      <c r="BK51" s="1"/>
-      <c r="BL51" s="1"/>
-      <c r="BM51" s="1"/>
-      <c r="BN51" s="1"/>
-      <c r="BO51" s="1"/>
-      <c r="BP51" s="1"/>
-      <c r="BQ51" s="1"/>
-      <c r="BR51" s="1"/>
-      <c r="BS51" s="1"/>
-      <c r="BT51" s="1"/>
-      <c r="BU51" s="1"/>
-      <c r="BV51" s="1"/>
-      <c r="BW51" s="1"/>
-      <c r="BX51" s="1"/>
-      <c r="BY51" s="1"/>
-      <c r="BZ51" s="1"/>
-      <c r="CA51" s="1"/>
-      <c r="CB51" s="1"/>
-      <c r="CC51" s="1"/>
-      <c r="CD51" s="1"/>
-      <c r="CE51" s="1"/>
-      <c r="CF51" s="1"/>
-      <c r="CG51" s="1"/>
-      <c r="CH51" s="1"/>
-      <c r="CI51" s="1"/>
-      <c r="CJ51" s="1"/>
-      <c r="CK51" s="1"/>
-      <c r="CL51" s="1"/>
-      <c r="CM51" s="1"/>
-      <c r="CN51" s="1"/>
-      <c r="CO51" s="1"/>
-      <c r="CP51" s="1"/>
-      <c r="CQ51" s="1"/>
-      <c r="CR51" s="1"/>
-      <c r="CS51" s="1"/>
-      <c r="CT51" s="1"/>
-      <c r="CU51" s="1"/>
-      <c r="CV51" s="1"/>
-      <c r="CW51" s="1"/>
-      <c r="CX51" s="1"/>
-      <c r="CY51" s="1"/>
-      <c r="CZ51" s="1">
-        <v>100</v>
-      </c>
-      <c r="DA51" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB51" s="1">
-        <v>100</v>
-      </c>
-      <c r="DC51" s="1">
-        <v>0</v>
-      </c>
-      <c r="DD51" s="1">
-        <v>100</v>
-      </c>
-      <c r="DE51" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF51" s="1">
-        <v>100</v>
-      </c>
-      <c r="DG51" s="1">
-        <v>0</v>
-      </c>
-      <c r="DH51" s="1">
-        <v>63</v>
-      </c>
-      <c r="DI51" s="1">
-        <v>37</v>
-      </c>
-      <c r="DJ51" s="1">
-        <v>100</v>
-      </c>
-      <c r="DK51" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL51" s="1">
-        <v>100</v>
-      </c>
-      <c r="DM51" s="1">
-        <v>199</v>
-      </c>
-      <c r="DN51" s="1">
-        <v>100</v>
-      </c>
-      <c r="DO51" s="1">
-        <v>492</v>
-      </c>
-      <c r="DP51" s="1">
-        <v>37</v>
-      </c>
-      <c r="DQ51" s="1">
-        <v>37</v>
-      </c>
-      <c r="DR51" s="1">
-        <v>1</v>
-      </c>
-      <c r="DS51" s="1">
-        <v>159372448</v>
-      </c>
-      <c r="DT51" s="1"/>
-      <c r="DU51" s="1"/>
-      <c r="DV51" s="1">
-        <v>100</v>
-      </c>
-      <c r="DW51" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX51" s="1">
-        <v>100</v>
-      </c>
-      <c r="DY51" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ51" s="1">
-        <v>200</v>
-      </c>
-      <c r="EA51" s="1">
-        <v>0</v>
-      </c>
-      <c r="EB51" s="1"/>
-      <c r="EC51" s="1"/>
-      <c r="ED51" s="1"/>
-      <c r="EE51" s="1"/>
-      <c r="EF51" s="1"/>
-      <c r="EG51" s="1"/>
-      <c r="EH51" s="1"/>
-      <c r="EI51" s="1"/>
-      <c r="EJ51" s="1"/>
-      <c r="EK51" s="1"/>
-      <c r="EL51" s="1"/>
-      <c r="EM51" s="1"/>
-      <c r="EN51" s="1"/>
-      <c r="EO51" s="1"/>
-      <c r="EP51" s="1"/>
-      <c r="EQ51" s="1"/>
-      <c r="ER51" s="1"/>
-      <c r="ES51" s="1"/>
-      <c r="ET51" s="1"/>
-      <c r="EU51" s="1"/>
-      <c r="EV51" s="1"/>
-      <c r="EW51" s="1"/>
-      <c r="EX51" s="1"/>
-      <c r="EY51" s="1"/>
-      <c r="EZ51" s="1"/>
-      <c r="FA51" s="1"/>
-      <c r="FB51" s="1"/>
-      <c r="FC51" s="1"/>
-      <c r="FD51" s="1"/>
-      <c r="FE51" s="1"/>
-      <c r="FF51" s="1"/>
-      <c r="FG51" s="1"/>
-      <c r="FH51" s="1"/>
-      <c r="FI51" s="1"/>
-      <c r="FJ51" s="1"/>
-      <c r="FK51" s="1"/>
-      <c r="FL51" s="1"/>
-      <c r="FM51" s="1"/>
-      <c r="FN51" s="1"/>
-      <c r="FO51" s="1"/>
-      <c r="FP51" s="1">
-        <v>100</v>
-      </c>
-      <c r="FQ51" s="1">
-        <v>75416</v>
-      </c>
-      <c r="FR51" s="1">
-        <v>100</v>
-      </c>
-      <c r="FS51" s="1">
-        <v>124290182672</v>
-      </c>
-      <c r="FT51" s="1">
-        <v>100</v>
-      </c>
-      <c r="FU51" s="1">
-        <v>586599055296</v>
-      </c>
-    </row>
-    <row r="52" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>45658</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D52" s="1">
-        <v>8001563222016</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1">
-        <v>1028</v>
-      </c>
-      <c r="I52" s="1">
-        <v>8</v>
-      </c>
-      <c r="J52" s="1">
-        <v>0</v>
-      </c>
-      <c r="K52" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="1">
-        <v>74</v>
-      </c>
-      <c r="M52" s="1">
-        <v>24866440</v>
-      </c>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1">
-        <v>84</v>
-      </c>
-      <c r="Q52" s="1">
-        <v>0</v>
-      </c>
-      <c r="R52" s="1">
-        <v>100</v>
-      </c>
-      <c r="S52" s="1">
-        <v>27</v>
-      </c>
-      <c r="T52" s="1">
-        <v>100</v>
-      </c>
-      <c r="U52" s="1">
-        <v>0</v>
-      </c>
-      <c r="V52" s="1">
-        <v>96</v>
-      </c>
-      <c r="W52" s="1">
-        <v>3558728305</v>
-      </c>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1">
-        <v>14</v>
-      </c>
-      <c r="AA52" s="1">
-        <v>75442</v>
-      </c>
-      <c r="AB52" s="1">
-        <v>100</v>
-      </c>
-      <c r="AC52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="1">
-        <v>100</v>
-      </c>
-      <c r="AG52" s="1">
-        <v>27</v>
-      </c>
-      <c r="AH52" s="1"/>
-      <c r="AI52" s="1"/>
-      <c r="AJ52" s="1"/>
-      <c r="AK52" s="1"/>
-      <c r="AL52" s="1"/>
-      <c r="AM52" s="1"/>
-      <c r="AN52" s="1"/>
-      <c r="AO52" s="1"/>
-      <c r="AP52" s="1"/>
-      <c r="AQ52" s="1"/>
-      <c r="AR52" s="1"/>
-      <c r="AS52" s="1"/>
-      <c r="AT52" s="1"/>
-      <c r="AU52" s="1"/>
-      <c r="AV52" s="1"/>
-      <c r="AW52" s="1"/>
-      <c r="AX52" s="1"/>
-      <c r="AY52" s="1"/>
-      <c r="AZ52" s="1"/>
-      <c r="BA52" s="1"/>
-      <c r="BB52" s="1"/>
-      <c r="BC52" s="1"/>
-      <c r="BD52" s="1"/>
-      <c r="BE52" s="1"/>
-      <c r="BF52" s="1"/>
-      <c r="BG52" s="1"/>
-      <c r="BH52" s="1"/>
-      <c r="BI52" s="1"/>
-      <c r="BJ52" s="1"/>
-      <c r="BK52" s="1"/>
-      <c r="BL52" s="1"/>
-      <c r="BM52" s="1"/>
-      <c r="BN52" s="1"/>
-      <c r="BO52" s="1"/>
-      <c r="BP52" s="1"/>
-      <c r="BQ52" s="1"/>
-      <c r="BR52" s="1"/>
-      <c r="BS52" s="1"/>
-      <c r="BT52" s="1"/>
-      <c r="BU52" s="1"/>
-      <c r="BV52" s="1"/>
-      <c r="BW52" s="1"/>
-      <c r="BX52" s="1"/>
-      <c r="BY52" s="1"/>
-      <c r="BZ52" s="1"/>
-      <c r="CA52" s="1"/>
-      <c r="CB52" s="1"/>
-      <c r="CC52" s="1"/>
-      <c r="CD52" s="1"/>
-      <c r="CE52" s="1"/>
-      <c r="CF52" s="1"/>
-      <c r="CG52" s="1"/>
-      <c r="CH52" s="1"/>
-      <c r="CI52" s="1"/>
-      <c r="CJ52" s="1"/>
-      <c r="CK52" s="1"/>
-      <c r="CL52" s="1"/>
-      <c r="CM52" s="1"/>
-      <c r="CN52" s="1"/>
-      <c r="CO52" s="1"/>
-      <c r="CP52" s="1"/>
-      <c r="CQ52" s="1"/>
-      <c r="CR52" s="1"/>
-      <c r="CS52" s="1"/>
-      <c r="CT52" s="1"/>
-      <c r="CU52" s="1"/>
-      <c r="CV52" s="1"/>
-      <c r="CW52" s="1"/>
-      <c r="CX52" s="1"/>
-      <c r="CY52" s="1"/>
-      <c r="CZ52" s="1">
-        <v>100</v>
-      </c>
-      <c r="DA52" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB52" s="1">
-        <v>100</v>
-      </c>
-      <c r="DC52" s="1">
-        <v>0</v>
-      </c>
-      <c r="DD52" s="1">
-        <v>100</v>
-      </c>
-      <c r="DE52" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF52" s="1">
-        <v>100</v>
-      </c>
-      <c r="DG52" s="1">
-        <v>0</v>
-      </c>
-      <c r="DH52" s="1">
-        <v>78</v>
-      </c>
-      <c r="DI52" s="1">
-        <v>22</v>
-      </c>
-      <c r="DJ52" s="1">
-        <v>100</v>
-      </c>
-      <c r="DK52" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL52" s="1">
-        <v>100</v>
-      </c>
-      <c r="DM52" s="1">
-        <v>209</v>
-      </c>
-      <c r="DN52" s="1">
-        <v>100</v>
-      </c>
-      <c r="DO52" s="1">
-        <v>528</v>
-      </c>
-      <c r="DP52" s="1">
-        <v>22</v>
-      </c>
-      <c r="DQ52" s="1">
-        <v>22</v>
-      </c>
-      <c r="DR52" s="1">
-        <v>1</v>
-      </c>
-      <c r="DS52" s="1">
-        <v>24866440</v>
-      </c>
-      <c r="DT52" s="1"/>
-      <c r="DU52" s="1"/>
-      <c r="DV52" s="1">
-        <v>100</v>
-      </c>
-      <c r="DW52" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX52" s="1">
-        <v>100</v>
-      </c>
-      <c r="DY52" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ52" s="1">
-        <v>200</v>
-      </c>
-      <c r="EA52" s="1">
-        <v>0</v>
-      </c>
-      <c r="EB52" s="1"/>
-      <c r="EC52" s="1"/>
-      <c r="ED52" s="1"/>
-      <c r="EE52" s="1"/>
-      <c r="EF52" s="1"/>
-      <c r="EG52" s="1"/>
-      <c r="EH52" s="1"/>
-      <c r="EI52" s="1"/>
-      <c r="EJ52" s="1"/>
-      <c r="EK52" s="1"/>
-      <c r="EL52" s="1"/>
-      <c r="EM52" s="1"/>
-      <c r="EN52" s="1"/>
-      <c r="EO52" s="1"/>
-      <c r="EP52" s="1"/>
-      <c r="EQ52" s="1"/>
-      <c r="ER52" s="1"/>
-      <c r="ES52" s="1"/>
-      <c r="ET52" s="1"/>
-      <c r="EU52" s="1"/>
-      <c r="EV52" s="1"/>
-      <c r="EW52" s="1"/>
-      <c r="EX52" s="1"/>
-      <c r="EY52" s="1"/>
-      <c r="EZ52" s="1"/>
-      <c r="FA52" s="1"/>
-      <c r="FB52" s="1"/>
-      <c r="FC52" s="1"/>
-      <c r="FD52" s="1"/>
-      <c r="FE52" s="1"/>
-      <c r="FF52" s="1"/>
-      <c r="FG52" s="1"/>
-      <c r="FH52" s="1"/>
-      <c r="FI52" s="1"/>
-      <c r="FJ52" s="1"/>
-      <c r="FK52" s="1"/>
-      <c r="FL52" s="1"/>
-      <c r="FM52" s="1"/>
-      <c r="FN52" s="1"/>
-      <c r="FO52" s="1"/>
-      <c r="FP52" s="1">
-        <v>100</v>
-      </c>
-      <c r="FQ52" s="1">
-        <v>75418</v>
-      </c>
-      <c r="FR52" s="1">
-        <v>100</v>
-      </c>
-      <c r="FS52" s="1">
-        <v>126589659784</v>
-      </c>
-      <c r="FT52" s="1">
-        <v>100</v>
-      </c>
-      <c r="FU52" s="1">
-        <v>614101044212</v>
-      </c>
-    </row>
-    <row r="53" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>45658</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D53" s="1">
-        <v>8001563222016</v>
-      </c>
-      <c r="E53" s="1">
-        <v>0</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1028</v>
-      </c>
-      <c r="I53" s="1">
-        <v>17</v>
-      </c>
-      <c r="J53" s="1">
-        <v>11</v>
-      </c>
-      <c r="K53" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="1">
-        <v>81</v>
-      </c>
-      <c r="M53" s="1">
-        <v>131160200</v>
-      </c>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1">
-        <v>84</v>
-      </c>
-      <c r="Q53" s="1">
-        <v>0</v>
-      </c>
-      <c r="R53" s="1">
-        <v>100</v>
-      </c>
-      <c r="S53" s="1">
-        <v>10</v>
-      </c>
-      <c r="T53" s="1">
-        <v>100</v>
-      </c>
-      <c r="U53" s="1">
-        <v>0</v>
-      </c>
-      <c r="V53" s="1">
-        <v>96</v>
-      </c>
-      <c r="W53" s="1">
-        <v>4286877974</v>
-      </c>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1">
-        <v>14</v>
-      </c>
-      <c r="AA53" s="1">
-        <v>75439</v>
-      </c>
-      <c r="AB53" s="1">
-        <v>100</v>
-      </c>
-      <c r="AC53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="1"/>
-      <c r="AE53" s="1"/>
-      <c r="AF53" s="1">
-        <v>100</v>
-      </c>
-      <c r="AG53" s="1">
-        <v>10</v>
-      </c>
-      <c r="AH53" s="1"/>
-      <c r="AI53" s="1"/>
-      <c r="AJ53" s="1"/>
-      <c r="AK53" s="1"/>
-      <c r="AL53" s="1"/>
-      <c r="AM53" s="1"/>
-      <c r="AN53" s="1"/>
-      <c r="AO53" s="1"/>
-      <c r="AP53" s="1"/>
-      <c r="AQ53" s="1"/>
-      <c r="AR53" s="1"/>
-      <c r="AS53" s="1"/>
-      <c r="AT53" s="1"/>
-      <c r="AU53" s="1"/>
-      <c r="AV53" s="1"/>
-      <c r="AW53" s="1"/>
-      <c r="AX53" s="1"/>
-      <c r="AY53" s="1"/>
-      <c r="AZ53" s="1"/>
-      <c r="BA53" s="1"/>
-      <c r="BB53" s="1"/>
-      <c r="BC53" s="1"/>
-      <c r="BD53" s="1"/>
-      <c r="BE53" s="1"/>
-      <c r="BF53" s="1"/>
-      <c r="BG53" s="1"/>
-      <c r="BH53" s="1"/>
-      <c r="BI53" s="1"/>
-      <c r="BJ53" s="1"/>
-      <c r="BK53" s="1"/>
-      <c r="BL53" s="1"/>
-      <c r="BM53" s="1"/>
-      <c r="BN53" s="1"/>
-      <c r="BO53" s="1"/>
-      <c r="BP53" s="1"/>
-      <c r="BQ53" s="1"/>
-      <c r="BR53" s="1"/>
-      <c r="BS53" s="1"/>
-      <c r="BT53" s="1"/>
-      <c r="BU53" s="1"/>
-      <c r="BV53" s="1"/>
-      <c r="BW53" s="1"/>
-      <c r="BX53" s="1"/>
-      <c r="BY53" s="1"/>
-      <c r="BZ53" s="1"/>
-      <c r="CA53" s="1"/>
-      <c r="CB53" s="1"/>
-      <c r="CC53" s="1"/>
-      <c r="CD53" s="1"/>
-      <c r="CE53" s="1"/>
-      <c r="CF53" s="1"/>
-      <c r="CG53" s="1"/>
-      <c r="CH53" s="1"/>
-      <c r="CI53" s="1"/>
-      <c r="CJ53" s="1"/>
-      <c r="CK53" s="1"/>
-      <c r="CL53" s="1"/>
-      <c r="CM53" s="1"/>
-      <c r="CN53" s="1"/>
-      <c r="CO53" s="1"/>
-      <c r="CP53" s="1"/>
-      <c r="CQ53" s="1"/>
-      <c r="CR53" s="1"/>
-      <c r="CS53" s="1"/>
-      <c r="CT53" s="1"/>
-      <c r="CU53" s="1"/>
-      <c r="CV53" s="1"/>
-      <c r="CW53" s="1"/>
-      <c r="CX53" s="1"/>
-      <c r="CY53" s="1"/>
-      <c r="CZ53" s="1">
-        <v>100</v>
-      </c>
-      <c r="DA53" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB53" s="1">
-        <v>100</v>
-      </c>
-      <c r="DC53" s="1">
-        <v>0</v>
-      </c>
-      <c r="DD53" s="1">
-        <v>100</v>
-      </c>
-      <c r="DE53" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF53" s="1">
-        <v>100</v>
-      </c>
-      <c r="DG53" s="1">
-        <v>0</v>
-      </c>
-      <c r="DH53" s="1">
-        <v>72</v>
-      </c>
-      <c r="DI53" s="1">
-        <v>28</v>
-      </c>
-      <c r="DJ53" s="1">
-        <v>100</v>
-      </c>
-      <c r="DK53" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL53" s="1">
-        <v>100</v>
-      </c>
-      <c r="DM53" s="1">
-        <v>195</v>
-      </c>
-      <c r="DN53" s="1">
-        <v>100</v>
-      </c>
-      <c r="DO53" s="1">
-        <v>500</v>
-      </c>
-      <c r="DP53" s="1">
-        <v>28</v>
-      </c>
-      <c r="DQ53" s="1">
-        <v>28</v>
-      </c>
-      <c r="DR53" s="1">
-        <v>1</v>
-      </c>
-      <c r="DS53" s="1">
-        <v>131160200</v>
-      </c>
-      <c r="DT53" s="1"/>
-      <c r="DU53" s="1"/>
-      <c r="DV53" s="1">
-        <v>100</v>
-      </c>
-      <c r="DW53" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX53" s="1">
-        <v>100</v>
-      </c>
-      <c r="DY53" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ53" s="1">
-        <v>200</v>
-      </c>
-      <c r="EA53" s="1">
-        <v>0</v>
-      </c>
-      <c r="EB53" s="1"/>
-      <c r="EC53" s="1"/>
-      <c r="ED53" s="1"/>
-      <c r="EE53" s="1"/>
-      <c r="EF53" s="1"/>
-      <c r="EG53" s="1"/>
-      <c r="EH53" s="1"/>
-      <c r="EI53" s="1"/>
-      <c r="EJ53" s="1"/>
-      <c r="EK53" s="1"/>
-      <c r="EL53" s="1"/>
-      <c r="EM53" s="1"/>
-      <c r="EN53" s="1"/>
-      <c r="EO53" s="1"/>
-      <c r="EP53" s="1"/>
-      <c r="EQ53" s="1"/>
-      <c r="ER53" s="1"/>
-      <c r="ES53" s="1"/>
-      <c r="ET53" s="1"/>
-      <c r="EU53" s="1"/>
-      <c r="EV53" s="1"/>
-      <c r="EW53" s="1"/>
-      <c r="EX53" s="1"/>
-      <c r="EY53" s="1"/>
-      <c r="EZ53" s="1"/>
-      <c r="FA53" s="1"/>
-      <c r="FB53" s="1"/>
-      <c r="FC53" s="1"/>
-      <c r="FD53" s="1"/>
-      <c r="FE53" s="1"/>
-      <c r="FF53" s="1"/>
-      <c r="FG53" s="1"/>
-      <c r="FH53" s="1"/>
-      <c r="FI53" s="1"/>
-      <c r="FJ53" s="1"/>
-      <c r="FK53" s="1"/>
-      <c r="FL53" s="1"/>
-      <c r="FM53" s="1"/>
-      <c r="FN53" s="1"/>
-      <c r="FO53" s="1"/>
-      <c r="FP53" s="1">
-        <v>100</v>
-      </c>
-      <c r="FQ53" s="1">
-        <v>75415</v>
-      </c>
-      <c r="FR53" s="1">
-        <v>100</v>
-      </c>
-      <c r="FS53" s="1">
-        <v>125567572808</v>
-      </c>
-      <c r="FT53" s="1">
-        <v>100</v>
-      </c>
-      <c r="FU53" s="1">
-        <v>468131015980</v>
-      </c>
-    </row>
-    <row r="54" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>45658</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D54" s="1">
-        <v>8001563222016</v>
-      </c>
-      <c r="E54" s="1">
-        <v>0</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0</v>
-      </c>
-      <c r="H54" s="1">
-        <v>1028</v>
-      </c>
-      <c r="I54" s="1">
-        <v>13</v>
-      </c>
-      <c r="J54" s="1">
-        <v>28</v>
-      </c>
-      <c r="K54" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="1">
-        <v>75</v>
-      </c>
-      <c r="M54" s="1">
-        <v>33793648</v>
-      </c>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1">
-        <v>84</v>
-      </c>
-      <c r="Q54" s="1">
-        <v>0</v>
-      </c>
-      <c r="R54" s="1">
-        <v>100</v>
-      </c>
-      <c r="S54" s="1">
-        <v>13</v>
-      </c>
-      <c r="T54" s="1">
-        <v>100</v>
-      </c>
-      <c r="U54" s="1">
-        <v>0</v>
-      </c>
-      <c r="V54" s="1">
-        <v>96</v>
-      </c>
-      <c r="W54" s="1">
-        <v>4072091478</v>
-      </c>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1">
-        <v>14</v>
-      </c>
-      <c r="AA54" s="1">
-        <v>75432</v>
-      </c>
-      <c r="AB54" s="1">
-        <v>100</v>
-      </c>
-      <c r="AC54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
-      <c r="AF54" s="1">
-        <v>100</v>
-      </c>
-      <c r="AG54" s="1">
-        <v>13</v>
-      </c>
-      <c r="AH54" s="1"/>
-      <c r="AI54" s="1"/>
-      <c r="AJ54" s="1"/>
-      <c r="AK54" s="1"/>
-      <c r="AL54" s="1"/>
-      <c r="AM54" s="1"/>
-      <c r="AN54" s="1"/>
-      <c r="AO54" s="1"/>
-      <c r="AP54" s="1"/>
-      <c r="AQ54" s="1"/>
-      <c r="AR54" s="1"/>
-      <c r="AS54" s="1"/>
-      <c r="AT54" s="1"/>
-      <c r="AU54" s="1"/>
-      <c r="AV54" s="1"/>
-      <c r="AW54" s="1"/>
-      <c r="AX54" s="1"/>
-      <c r="AY54" s="1"/>
-      <c r="AZ54" s="1"/>
-      <c r="BA54" s="1"/>
-      <c r="BB54" s="1"/>
-      <c r="BC54" s="1"/>
-      <c r="BD54" s="1"/>
-      <c r="BE54" s="1"/>
-      <c r="BF54" s="1"/>
-      <c r="BG54" s="1"/>
-      <c r="BH54" s="1"/>
-      <c r="BI54" s="1"/>
-      <c r="BJ54" s="1"/>
-      <c r="BK54" s="1"/>
-      <c r="BL54" s="1"/>
-      <c r="BM54" s="1"/>
-      <c r="BN54" s="1"/>
-      <c r="BO54" s="1"/>
-      <c r="BP54" s="1"/>
-      <c r="BQ54" s="1"/>
-      <c r="BR54" s="1"/>
-      <c r="BS54" s="1"/>
-      <c r="BT54" s="1"/>
-      <c r="BU54" s="1"/>
-      <c r="BV54" s="1"/>
-      <c r="BW54" s="1"/>
-      <c r="BX54" s="1"/>
-      <c r="BY54" s="1"/>
-      <c r="BZ54" s="1"/>
-      <c r="CA54" s="1"/>
-      <c r="CB54" s="1"/>
-      <c r="CC54" s="1"/>
-      <c r="CD54" s="1"/>
-      <c r="CE54" s="1"/>
-      <c r="CF54" s="1"/>
-      <c r="CG54" s="1"/>
-      <c r="CH54" s="1"/>
-      <c r="CI54" s="1"/>
-      <c r="CJ54" s="1"/>
-      <c r="CK54" s="1"/>
-      <c r="CL54" s="1"/>
-      <c r="CM54" s="1"/>
-      <c r="CN54" s="1"/>
-      <c r="CO54" s="1"/>
-      <c r="CP54" s="1"/>
-      <c r="CQ54" s="1"/>
-      <c r="CR54" s="1"/>
-      <c r="CS54" s="1"/>
-      <c r="CT54" s="1"/>
-      <c r="CU54" s="1"/>
-      <c r="CV54" s="1"/>
-      <c r="CW54" s="1"/>
-      <c r="CX54" s="1"/>
-      <c r="CY54" s="1"/>
-      <c r="CZ54" s="1">
-        <v>100</v>
-      </c>
-      <c r="DA54" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB54" s="1">
-        <v>100</v>
-      </c>
-      <c r="DC54" s="1">
-        <v>0</v>
-      </c>
-      <c r="DD54" s="1">
-        <v>100</v>
-      </c>
-      <c r="DE54" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF54" s="1">
-        <v>100</v>
-      </c>
-      <c r="DG54" s="1">
-        <v>0</v>
-      </c>
-      <c r="DH54" s="1">
-        <v>64</v>
-      </c>
-      <c r="DI54" s="1">
-        <v>36</v>
-      </c>
-      <c r="DJ54" s="1">
-        <v>100</v>
-      </c>
-      <c r="DK54" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL54" s="1">
-        <v>100</v>
-      </c>
-      <c r="DM54" s="1">
-        <v>197</v>
-      </c>
-      <c r="DN54" s="1">
-        <v>100</v>
-      </c>
-      <c r="DO54" s="1">
-        <v>508</v>
-      </c>
-      <c r="DP54" s="1">
-        <v>36</v>
-      </c>
-      <c r="DQ54" s="1">
-        <v>36</v>
-      </c>
-      <c r="DR54" s="1">
-        <v>1</v>
-      </c>
-      <c r="DS54" s="1">
-        <v>33793648</v>
-      </c>
-      <c r="DT54" s="1"/>
-      <c r="DU54" s="1"/>
-      <c r="DV54" s="1">
-        <v>100</v>
-      </c>
-      <c r="DW54" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX54" s="1">
-        <v>100</v>
-      </c>
-      <c r="DY54" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ54" s="1">
-        <v>200</v>
-      </c>
-      <c r="EA54" s="1">
-        <v>0</v>
-      </c>
-      <c r="EB54" s="1"/>
-      <c r="EC54" s="1"/>
-      <c r="ED54" s="1"/>
-      <c r="EE54" s="1"/>
-      <c r="EF54" s="1"/>
-      <c r="EG54" s="1"/>
-      <c r="EH54" s="1"/>
-      <c r="EI54" s="1"/>
-      <c r="EJ54" s="1"/>
-      <c r="EK54" s="1"/>
-      <c r="EL54" s="1"/>
-      <c r="EM54" s="1"/>
-      <c r="EN54" s="1"/>
-      <c r="EO54" s="1"/>
-      <c r="EP54" s="1"/>
-      <c r="EQ54" s="1"/>
-      <c r="ER54" s="1"/>
-      <c r="ES54" s="1"/>
-      <c r="ET54" s="1"/>
-      <c r="EU54" s="1"/>
-      <c r="EV54" s="1"/>
-      <c r="EW54" s="1"/>
-      <c r="EX54" s="1"/>
-      <c r="EY54" s="1"/>
-      <c r="EZ54" s="1"/>
-      <c r="FA54" s="1"/>
-      <c r="FB54" s="1"/>
-      <c r="FC54" s="1"/>
-      <c r="FD54" s="1"/>
-      <c r="FE54" s="1"/>
-      <c r="FF54" s="1"/>
-      <c r="FG54" s="1"/>
-      <c r="FH54" s="1"/>
-      <c r="FI54" s="1"/>
-      <c r="FJ54" s="1"/>
-      <c r="FK54" s="1"/>
-      <c r="FL54" s="1"/>
-      <c r="FM54" s="1"/>
-      <c r="FN54" s="1"/>
-      <c r="FO54" s="1"/>
-      <c r="FP54" s="1">
-        <v>100</v>
-      </c>
-      <c r="FQ54" s="1">
-        <v>75408</v>
-      </c>
-      <c r="FR54" s="1">
-        <v>100</v>
-      </c>
-      <c r="FS54" s="1">
-        <v>122115328344</v>
-      </c>
-      <c r="FT54" s="1">
-        <v>100</v>
-      </c>
-      <c r="FU54" s="1">
-        <v>503674420330</v>
-      </c>
-    </row>
-    <row r="55" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>45658</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D55" s="1">
-        <v>8001563222016</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0</v>
-      </c>
-      <c r="H55" s="1">
-        <v>1028</v>
-      </c>
-      <c r="I55" s="1">
-        <v>17</v>
-      </c>
-      <c r="J55" s="1">
-        <v>42</v>
-      </c>
-      <c r="K55" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="1">
-        <v>80</v>
-      </c>
-      <c r="M55" s="1">
-        <v>89184992</v>
-      </c>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1">
-        <v>84</v>
-      </c>
-      <c r="Q55" s="1">
-        <v>0</v>
-      </c>
-      <c r="R55" s="1">
-        <v>100</v>
-      </c>
-      <c r="S55" s="1">
-        <v>10</v>
-      </c>
-      <c r="T55" s="1">
-        <v>100</v>
-      </c>
-      <c r="U55" s="1">
-        <v>0</v>
-      </c>
-      <c r="V55" s="1">
-        <v>96</v>
-      </c>
-      <c r="W55" s="1">
-        <v>4232683867</v>
-      </c>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1">
-        <v>14</v>
-      </c>
-      <c r="AA55" s="1">
-        <v>75434</v>
-      </c>
-      <c r="AB55" s="1">
-        <v>100</v>
-      </c>
-      <c r="AC55" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD55" s="1"/>
-      <c r="AE55" s="1"/>
-      <c r="AF55" s="1">
-        <v>100</v>
-      </c>
-      <c r="AG55" s="1">
-        <v>10</v>
-      </c>
-      <c r="AH55" s="1"/>
-      <c r="AI55" s="1"/>
-      <c r="AJ55" s="1"/>
-      <c r="AK55" s="1"/>
-      <c r="AL55" s="1"/>
-      <c r="AM55" s="1"/>
-      <c r="AN55" s="1"/>
-      <c r="AO55" s="1"/>
-      <c r="AP55" s="1"/>
-      <c r="AQ55" s="1"/>
-      <c r="AR55" s="1"/>
-      <c r="AS55" s="1"/>
-      <c r="AT55" s="1"/>
-      <c r="AU55" s="1"/>
-      <c r="AV55" s="1"/>
-      <c r="AW55" s="1"/>
-      <c r="AX55" s="1"/>
-      <c r="AY55" s="1"/>
-      <c r="AZ55" s="1"/>
-      <c r="BA55" s="1"/>
-      <c r="BB55" s="1"/>
-      <c r="BC55" s="1"/>
-      <c r="BD55" s="1"/>
-      <c r="BE55" s="1"/>
-      <c r="BF55" s="1"/>
-      <c r="BG55" s="1"/>
-      <c r="BH55" s="1"/>
-      <c r="BI55" s="1"/>
-      <c r="BJ55" s="1"/>
-      <c r="BK55" s="1"/>
-      <c r="BL55" s="1"/>
-      <c r="BM55" s="1"/>
-      <c r="BN55" s="1"/>
-      <c r="BO55" s="1"/>
-      <c r="BP55" s="1"/>
-      <c r="BQ55" s="1"/>
-      <c r="BR55" s="1"/>
-      <c r="BS55" s="1"/>
-      <c r="BT55" s="1"/>
-      <c r="BU55" s="1"/>
-      <c r="BV55" s="1"/>
-      <c r="BW55" s="1"/>
-      <c r="BX55" s="1"/>
-      <c r="BY55" s="1"/>
-      <c r="BZ55" s="1"/>
-      <c r="CA55" s="1"/>
-      <c r="CB55" s="1"/>
-      <c r="CC55" s="1"/>
-      <c r="CD55" s="1"/>
-      <c r="CE55" s="1"/>
-      <c r="CF55" s="1"/>
-      <c r="CG55" s="1"/>
-      <c r="CH55" s="1"/>
-      <c r="CI55" s="1"/>
-      <c r="CJ55" s="1"/>
-      <c r="CK55" s="1"/>
-      <c r="CL55" s="1"/>
-      <c r="CM55" s="1"/>
-      <c r="CN55" s="1"/>
-      <c r="CO55" s="1"/>
-      <c r="CP55" s="1"/>
-      <c r="CQ55" s="1"/>
-      <c r="CR55" s="1"/>
-      <c r="CS55" s="1"/>
-      <c r="CT55" s="1"/>
-      <c r="CU55" s="1"/>
-      <c r="CV55" s="1"/>
-      <c r="CW55" s="1"/>
-      <c r="CX55" s="1"/>
-      <c r="CY55" s="1"/>
-      <c r="CZ55" s="1">
-        <v>100</v>
-      </c>
-      <c r="DA55" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB55" s="1">
-        <v>100</v>
-      </c>
-      <c r="DC55" s="1">
-        <v>0</v>
-      </c>
-      <c r="DD55" s="1">
-        <v>100</v>
-      </c>
-      <c r="DE55" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF55" s="1">
-        <v>100</v>
-      </c>
-      <c r="DG55" s="1">
-        <v>0</v>
-      </c>
-      <c r="DH55" s="1">
-        <v>65</v>
-      </c>
-      <c r="DI55" s="1">
-        <v>35</v>
-      </c>
-      <c r="DJ55" s="1">
-        <v>100</v>
-      </c>
-      <c r="DK55" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL55" s="1">
-        <v>100</v>
-      </c>
-      <c r="DM55" s="1">
-        <v>192</v>
-      </c>
-      <c r="DN55" s="1">
-        <v>100</v>
-      </c>
-      <c r="DO55" s="1">
-        <v>505</v>
-      </c>
-      <c r="DP55" s="1">
-        <v>35</v>
-      </c>
-      <c r="DQ55" s="1">
-        <v>35</v>
-      </c>
-      <c r="DR55" s="1">
-        <v>1</v>
-      </c>
-      <c r="DS55" s="1">
-        <v>89184992</v>
-      </c>
-      <c r="DT55" s="1"/>
-      <c r="DU55" s="1"/>
-      <c r="DV55" s="1">
-        <v>100</v>
-      </c>
-      <c r="DW55" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX55" s="1">
-        <v>100</v>
-      </c>
-      <c r="DY55" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ55" s="1">
-        <v>200</v>
-      </c>
-      <c r="EA55" s="1">
-        <v>0</v>
-      </c>
-      <c r="EB55" s="1"/>
-      <c r="EC55" s="1"/>
-      <c r="ED55" s="1"/>
-      <c r="EE55" s="1"/>
-      <c r="EF55" s="1"/>
-      <c r="EG55" s="1"/>
-      <c r="EH55" s="1"/>
-      <c r="EI55" s="1"/>
-      <c r="EJ55" s="1"/>
-      <c r="EK55" s="1"/>
-      <c r="EL55" s="1"/>
-      <c r="EM55" s="1"/>
-      <c r="EN55" s="1"/>
-      <c r="EO55" s="1"/>
-      <c r="EP55" s="1"/>
-      <c r="EQ55" s="1"/>
-      <c r="ER55" s="1"/>
-      <c r="ES55" s="1"/>
-      <c r="ET55" s="1"/>
-      <c r="EU55" s="1"/>
-      <c r="EV55" s="1"/>
-      <c r="EW55" s="1"/>
-      <c r="EX55" s="1"/>
-      <c r="EY55" s="1"/>
-      <c r="EZ55" s="1"/>
-      <c r="FA55" s="1"/>
-      <c r="FB55" s="1"/>
-      <c r="FC55" s="1"/>
-      <c r="FD55" s="1"/>
-      <c r="FE55" s="1"/>
-      <c r="FF55" s="1"/>
-      <c r="FG55" s="1"/>
-      <c r="FH55" s="1"/>
-      <c r="FI55" s="1"/>
-      <c r="FJ55" s="1"/>
-      <c r="FK55" s="1"/>
-      <c r="FL55" s="1"/>
-      <c r="FM55" s="1"/>
-      <c r="FN55" s="1"/>
-      <c r="FO55" s="1"/>
-      <c r="FP55" s="1">
-        <v>100</v>
-      </c>
-      <c r="FQ55" s="1">
-        <v>75411</v>
-      </c>
-      <c r="FR55" s="1">
-        <v>100</v>
-      </c>
-      <c r="FS55" s="1">
-        <v>123570233800</v>
-      </c>
-      <c r="FT55" s="1">
-        <v>100</v>
-      </c>
-      <c r="FU55" s="1">
-        <v>544600857636</v>
-      </c>
-    </row>
-    <row r="56" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>45658</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D56" s="1">
-        <v>8001563222016</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0</v>
-      </c>
-      <c r="H56" s="1">
-        <v>1028</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0</v>
-      </c>
-      <c r="J56" s="1">
-        <v>34</v>
-      </c>
-      <c r="K56" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="1">
-        <v>80</v>
-      </c>
-      <c r="M56" s="1">
-        <v>98591248</v>
-      </c>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1">
-        <v>84</v>
-      </c>
-      <c r="Q56" s="1">
-        <v>0</v>
-      </c>
-      <c r="R56" s="1">
-        <v>100</v>
-      </c>
-      <c r="S56" s="1">
-        <v>9</v>
-      </c>
-      <c r="T56" s="1">
-        <v>100</v>
-      </c>
-      <c r="U56" s="1">
-        <v>0</v>
-      </c>
-      <c r="V56" s="1">
-        <v>96</v>
-      </c>
-      <c r="W56" s="1">
-        <v>4175340044</v>
-      </c>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1">
-        <v>14</v>
-      </c>
-      <c r="AA56" s="1">
-        <v>75461</v>
-      </c>
-      <c r="AB56" s="1">
-        <v>100</v>
-      </c>
-      <c r="AC56" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
-      <c r="AF56" s="1">
-        <v>100</v>
-      </c>
-      <c r="AG56" s="1">
-        <v>9</v>
-      </c>
-      <c r="AH56" s="1"/>
-      <c r="AI56" s="1"/>
-      <c r="AJ56" s="1"/>
-      <c r="AK56" s="1"/>
-      <c r="AL56" s="1"/>
-      <c r="AM56" s="1"/>
-      <c r="AN56" s="1"/>
-      <c r="AO56" s="1"/>
-      <c r="AP56" s="1"/>
-      <c r="AQ56" s="1"/>
-      <c r="AR56" s="1"/>
-      <c r="AS56" s="1"/>
-      <c r="AT56" s="1"/>
-      <c r="AU56" s="1"/>
-      <c r="AV56" s="1"/>
-      <c r="AW56" s="1"/>
-      <c r="AX56" s="1"/>
-      <c r="AY56" s="1"/>
-      <c r="AZ56" s="1"/>
-      <c r="BA56" s="1"/>
-      <c r="BB56" s="1"/>
-      <c r="BC56" s="1"/>
-      <c r="BD56" s="1"/>
-      <c r="BE56" s="1"/>
-      <c r="BF56" s="1"/>
-      <c r="BG56" s="1"/>
-      <c r="BH56" s="1"/>
-      <c r="BI56" s="1"/>
-      <c r="BJ56" s="1"/>
-      <c r="BK56" s="1"/>
-      <c r="BL56" s="1"/>
-      <c r="BM56" s="1"/>
-      <c r="BN56" s="1"/>
-      <c r="BO56" s="1"/>
-      <c r="BP56" s="1"/>
-      <c r="BQ56" s="1"/>
-      <c r="BR56" s="1"/>
-      <c r="BS56" s="1"/>
-      <c r="BT56" s="1"/>
-      <c r="BU56" s="1"/>
-      <c r="BV56" s="1"/>
-      <c r="BW56" s="1"/>
-      <c r="BX56" s="1"/>
-      <c r="BY56" s="1"/>
-      <c r="BZ56" s="1"/>
-      <c r="CA56" s="1"/>
-      <c r="CB56" s="1"/>
-      <c r="CC56" s="1"/>
-      <c r="CD56" s="1"/>
-      <c r="CE56" s="1"/>
-      <c r="CF56" s="1"/>
-      <c r="CG56" s="1"/>
-      <c r="CH56" s="1"/>
-      <c r="CI56" s="1"/>
-      <c r="CJ56" s="1"/>
-      <c r="CK56" s="1"/>
-      <c r="CL56" s="1"/>
-      <c r="CM56" s="1"/>
-      <c r="CN56" s="1"/>
-      <c r="CO56" s="1"/>
-      <c r="CP56" s="1"/>
-      <c r="CQ56" s="1"/>
-      <c r="CR56" s="1"/>
-      <c r="CS56" s="1"/>
-      <c r="CT56" s="1"/>
-      <c r="CU56" s="1"/>
-      <c r="CV56" s="1"/>
-      <c r="CW56" s="1"/>
-      <c r="CX56" s="1"/>
-      <c r="CY56" s="1"/>
-      <c r="CZ56" s="1">
-        <v>100</v>
-      </c>
-      <c r="DA56" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB56" s="1">
-        <v>100</v>
-      </c>
-      <c r="DC56" s="1">
-        <v>0</v>
-      </c>
-      <c r="DD56" s="1">
-        <v>100</v>
-      </c>
-      <c r="DE56" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF56" s="1">
-        <v>100</v>
-      </c>
-      <c r="DG56" s="1">
-        <v>0</v>
-      </c>
-      <c r="DH56" s="1">
-        <v>71</v>
-      </c>
-      <c r="DI56" s="1">
-        <v>29</v>
-      </c>
-      <c r="DJ56" s="1">
-        <v>100</v>
-      </c>
-      <c r="DK56" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL56" s="1">
-        <v>100</v>
-      </c>
-      <c r="DM56" s="1">
-        <v>185</v>
-      </c>
-      <c r="DN56" s="1">
-        <v>100</v>
-      </c>
-      <c r="DO56" s="1">
-        <v>565</v>
-      </c>
-      <c r="DP56" s="1">
-        <v>29</v>
-      </c>
-      <c r="DQ56" s="1">
-        <v>29</v>
-      </c>
-      <c r="DR56" s="1">
-        <v>1</v>
-      </c>
-      <c r="DS56" s="1">
-        <v>98591248</v>
-      </c>
-      <c r="DT56" s="1"/>
-      <c r="DU56" s="1"/>
-      <c r="DV56" s="1">
-        <v>100</v>
-      </c>
-      <c r="DW56" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX56" s="1">
-        <v>100</v>
-      </c>
-      <c r="DY56" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ56" s="1">
-        <v>200</v>
-      </c>
-      <c r="EA56" s="1">
-        <v>0</v>
-      </c>
-      <c r="EB56" s="1"/>
-      <c r="EC56" s="1"/>
-      <c r="ED56" s="1"/>
-      <c r="EE56" s="1"/>
-      <c r="EF56" s="1"/>
-      <c r="EG56" s="1"/>
-      <c r="EH56" s="1"/>
-      <c r="EI56" s="1"/>
-      <c r="EJ56" s="1"/>
-      <c r="EK56" s="1"/>
-      <c r="EL56" s="1"/>
-      <c r="EM56" s="1"/>
-      <c r="EN56" s="1"/>
-      <c r="EO56" s="1"/>
-      <c r="EP56" s="1"/>
-      <c r="EQ56" s="1"/>
-      <c r="ER56" s="1"/>
-      <c r="ES56" s="1"/>
-      <c r="ET56" s="1"/>
-      <c r="EU56" s="1"/>
-      <c r="EV56" s="1"/>
-      <c r="EW56" s="1"/>
-      <c r="EX56" s="1"/>
-      <c r="EY56" s="1"/>
-      <c r="EZ56" s="1"/>
-      <c r="FA56" s="1"/>
-      <c r="FB56" s="1"/>
-      <c r="FC56" s="1"/>
-      <c r="FD56" s="1"/>
-      <c r="FE56" s="1"/>
-      <c r="FF56" s="1"/>
-      <c r="FG56" s="1"/>
-      <c r="FH56" s="1"/>
-      <c r="FI56" s="1"/>
-      <c r="FJ56" s="1"/>
-      <c r="FK56" s="1"/>
-      <c r="FL56" s="1"/>
-      <c r="FM56" s="1"/>
-      <c r="FN56" s="1"/>
-      <c r="FO56" s="1"/>
-      <c r="FP56" s="1">
-        <v>100</v>
-      </c>
-      <c r="FQ56" s="1">
-        <v>75435</v>
-      </c>
-      <c r="FR56" s="1">
-        <v>100</v>
-      </c>
-      <c r="FS56" s="1">
-        <v>121925641512</v>
-      </c>
-      <c r="FT56" s="1">
-        <v>100</v>
-      </c>
-      <c r="FU56" s="1">
-        <v>565612014390</v>
-      </c>
-    </row>
-    <row r="57" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>45658</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D57" s="1">
-        <v>8001563222016</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0</v>
-      </c>
-      <c r="H57" s="1">
-        <v>1028</v>
-      </c>
-      <c r="I57" s="1">
-        <v>8</v>
-      </c>
-      <c r="J57" s="1">
-        <v>35</v>
-      </c>
-      <c r="K57" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L57" s="1">
-        <v>82</v>
-      </c>
-      <c r="M57" s="1">
-        <v>159316120</v>
-      </c>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1">
-        <v>84</v>
-      </c>
-      <c r="Q57" s="1">
-        <v>0</v>
-      </c>
-      <c r="R57" s="1">
-        <v>100</v>
-      </c>
-      <c r="S57" s="1">
-        <v>27</v>
-      </c>
-      <c r="T57" s="1">
-        <v>100</v>
-      </c>
-      <c r="U57" s="1">
-        <v>0</v>
-      </c>
-      <c r="V57" s="1">
-        <v>82</v>
-      </c>
-      <c r="W57" s="1">
-        <v>160911259</v>
-      </c>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1">
-        <v>14</v>
-      </c>
-      <c r="AA57" s="1">
-        <v>75441</v>
-      </c>
-      <c r="AB57" s="1">
-        <v>100</v>
-      </c>
-      <c r="AC57" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD57" s="1"/>
-      <c r="AE57" s="1"/>
-      <c r="AF57" s="1">
-        <v>100</v>
-      </c>
-      <c r="AG57" s="1">
-        <v>27</v>
-      </c>
-      <c r="AH57" s="1"/>
-      <c r="AI57" s="1"/>
-      <c r="AJ57" s="1"/>
-      <c r="AK57" s="1"/>
-      <c r="AL57" s="1"/>
-      <c r="AM57" s="1"/>
-      <c r="AN57" s="1"/>
-      <c r="AO57" s="1"/>
-      <c r="AP57" s="1"/>
-      <c r="AQ57" s="1"/>
-      <c r="AR57" s="1"/>
-      <c r="AS57" s="1"/>
-      <c r="AT57" s="1"/>
-      <c r="AU57" s="1"/>
-      <c r="AV57" s="1"/>
-      <c r="AW57" s="1"/>
-      <c r="AX57" s="1"/>
-      <c r="AY57" s="1"/>
-      <c r="AZ57" s="1"/>
-      <c r="BA57" s="1"/>
-      <c r="BB57" s="1"/>
-      <c r="BC57" s="1"/>
-      <c r="BD57" s="1"/>
-      <c r="BE57" s="1"/>
-      <c r="BF57" s="1"/>
-      <c r="BG57" s="1"/>
-      <c r="BH57" s="1"/>
-      <c r="BI57" s="1"/>
-      <c r="BJ57" s="1"/>
-      <c r="BK57" s="1"/>
-      <c r="BL57" s="1"/>
-      <c r="BM57" s="1"/>
-      <c r="BN57" s="1"/>
-      <c r="BO57" s="1"/>
-      <c r="BP57" s="1"/>
-      <c r="BQ57" s="1"/>
-      <c r="BR57" s="1"/>
-      <c r="BS57" s="1"/>
-      <c r="BT57" s="1"/>
-      <c r="BU57" s="1"/>
-      <c r="BV57" s="1"/>
-      <c r="BW57" s="1"/>
-      <c r="BX57" s="1"/>
-      <c r="BY57" s="1"/>
-      <c r="BZ57" s="1"/>
-      <c r="CA57" s="1"/>
-      <c r="CB57" s="1"/>
-      <c r="CC57" s="1"/>
-      <c r="CD57" s="1"/>
-      <c r="CE57" s="1"/>
-      <c r="CF57" s="1"/>
-      <c r="CG57" s="1"/>
-      <c r="CH57" s="1"/>
-      <c r="CI57" s="1"/>
-      <c r="CJ57" s="1"/>
-      <c r="CK57" s="1"/>
-      <c r="CL57" s="1"/>
-      <c r="CM57" s="1"/>
-      <c r="CN57" s="1"/>
-      <c r="CO57" s="1"/>
-      <c r="CP57" s="1"/>
-      <c r="CQ57" s="1"/>
-      <c r="CR57" s="1"/>
-      <c r="CS57" s="1"/>
-      <c r="CT57" s="1"/>
-      <c r="CU57" s="1"/>
-      <c r="CV57" s="1"/>
-      <c r="CW57" s="1"/>
-      <c r="CX57" s="1"/>
-      <c r="CY57" s="1"/>
-      <c r="CZ57" s="1">
-        <v>100</v>
-      </c>
-      <c r="DA57" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB57" s="1">
-        <v>100</v>
-      </c>
-      <c r="DC57" s="1">
-        <v>0</v>
-      </c>
-      <c r="DD57" s="1">
-        <v>100</v>
-      </c>
-      <c r="DE57" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF57" s="1">
-        <v>100</v>
-      </c>
-      <c r="DG57" s="1">
-        <v>0</v>
-      </c>
-      <c r="DH57" s="1">
-        <v>70</v>
-      </c>
-      <c r="DI57" s="1">
-        <v>30</v>
-      </c>
-      <c r="DJ57" s="1">
-        <v>100</v>
-      </c>
-      <c r="DK57" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL57" s="1">
-        <v>100</v>
-      </c>
-      <c r="DM57" s="1">
-        <v>206</v>
-      </c>
-      <c r="DN57" s="1">
-        <v>100</v>
-      </c>
-      <c r="DO57" s="1">
-        <v>533</v>
-      </c>
-      <c r="DP57" s="1">
-        <v>30</v>
-      </c>
-      <c r="DQ57" s="1">
-        <v>30</v>
-      </c>
-      <c r="DR57" s="1">
-        <v>1</v>
-      </c>
-      <c r="DS57" s="1">
-        <v>159316120</v>
-      </c>
-      <c r="DT57" s="1"/>
-      <c r="DU57" s="1"/>
-      <c r="DV57" s="1">
-        <v>100</v>
-      </c>
-      <c r="DW57" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX57" s="1">
-        <v>100</v>
-      </c>
-      <c r="DY57" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ57" s="1">
-        <v>200</v>
-      </c>
-      <c r="EA57" s="1">
-        <v>0</v>
-      </c>
-      <c r="EB57" s="1"/>
-      <c r="EC57" s="1"/>
-      <c r="ED57" s="1"/>
-      <c r="EE57" s="1"/>
-      <c r="EF57" s="1"/>
-      <c r="EG57" s="1"/>
-      <c r="EH57" s="1"/>
-      <c r="EI57" s="1"/>
-      <c r="EJ57" s="1"/>
-      <c r="EK57" s="1"/>
-      <c r="EL57" s="1"/>
-      <c r="EM57" s="1"/>
-      <c r="EN57" s="1"/>
-      <c r="EO57" s="1"/>
-      <c r="EP57" s="1"/>
-      <c r="EQ57" s="1"/>
-      <c r="ER57" s="1"/>
-      <c r="ES57" s="1"/>
-      <c r="ET57" s="1"/>
-      <c r="EU57" s="1"/>
-      <c r="EV57" s="1"/>
-      <c r="EW57" s="1"/>
-      <c r="EX57" s="1"/>
-      <c r="EY57" s="1"/>
-      <c r="EZ57" s="1"/>
-      <c r="FA57" s="1"/>
-      <c r="FB57" s="1"/>
-      <c r="FC57" s="1"/>
-      <c r="FD57" s="1"/>
-      <c r="FE57" s="1"/>
-      <c r="FF57" s="1"/>
-      <c r="FG57" s="1"/>
-      <c r="FH57" s="1"/>
-      <c r="FI57" s="1"/>
-      <c r="FJ57" s="1"/>
-      <c r="FK57" s="1"/>
-      <c r="FL57" s="1"/>
-      <c r="FM57" s="1"/>
-      <c r="FN57" s="1"/>
-      <c r="FO57" s="1"/>
-      <c r="FP57" s="1">
-        <v>100</v>
-      </c>
-      <c r="FQ57" s="1">
-        <v>75414</v>
-      </c>
-      <c r="FR57" s="1">
-        <v>100</v>
-      </c>
-      <c r="FS57" s="1">
-        <v>125729693728</v>
-      </c>
-      <c r="FT57" s="1">
-        <v>100</v>
-      </c>
-      <c r="FU57" s="1">
-        <v>517465919654</v>
-      </c>
-    </row>
-    <row r="58" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>45658</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D58" s="1">
-        <v>8001563222016</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0</v>
-      </c>
-      <c r="H58" s="1">
-        <v>1028</v>
-      </c>
-      <c r="I58" s="1">
-        <v>3</v>
-      </c>
-      <c r="J58" s="1">
-        <v>19</v>
-      </c>
-      <c r="K58" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" s="1">
-        <v>80</v>
-      </c>
-      <c r="M58" s="1">
-        <v>99007088</v>
-      </c>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1">
-        <v>84</v>
-      </c>
-      <c r="Q58" s="1">
-        <v>0</v>
-      </c>
-      <c r="R58" s="1">
-        <v>100</v>
-      </c>
-      <c r="S58" s="1">
-        <v>8</v>
-      </c>
-      <c r="T58" s="1">
-        <v>100</v>
-      </c>
-      <c r="U58" s="1">
-        <v>40</v>
-      </c>
-      <c r="V58" s="1">
-        <v>85</v>
-      </c>
-      <c r="W58" s="1">
-        <v>284591654</v>
-      </c>
-      <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="1">
-        <v>14</v>
-      </c>
-      <c r="AA58" s="1">
-        <v>75459</v>
-      </c>
-      <c r="AB58" s="1">
-        <v>100</v>
-      </c>
-      <c r="AC58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD58" s="1"/>
-      <c r="AE58" s="1"/>
-      <c r="AF58" s="1">
-        <v>100</v>
-      </c>
-      <c r="AG58" s="1">
-        <v>8</v>
-      </c>
-      <c r="AH58" s="1"/>
-      <c r="AI58" s="1"/>
-      <c r="AJ58" s="1"/>
-      <c r="AK58" s="1"/>
-      <c r="AL58" s="1"/>
-      <c r="AM58" s="1"/>
-      <c r="AN58" s="1"/>
-      <c r="AO58" s="1"/>
-      <c r="AP58" s="1"/>
-      <c r="AQ58" s="1"/>
-      <c r="AR58" s="1"/>
-      <c r="AS58" s="1"/>
-      <c r="AT58" s="1"/>
-      <c r="AU58" s="1"/>
-      <c r="AV58" s="1"/>
-      <c r="AW58" s="1"/>
-      <c r="AX58" s="1"/>
-      <c r="AY58" s="1"/>
-      <c r="AZ58" s="1"/>
-      <c r="BA58" s="1"/>
-      <c r="BB58" s="1"/>
-      <c r="BC58" s="1"/>
-      <c r="BD58" s="1"/>
-      <c r="BE58" s="1"/>
-      <c r="BF58" s="1"/>
-      <c r="BG58" s="1"/>
-      <c r="BH58" s="1"/>
-      <c r="BI58" s="1"/>
-      <c r="BJ58" s="1"/>
-      <c r="BK58" s="1"/>
-      <c r="BL58" s="1"/>
-      <c r="BM58" s="1"/>
-      <c r="BN58" s="1"/>
-      <c r="BO58" s="1"/>
-      <c r="BP58" s="1"/>
-      <c r="BQ58" s="1"/>
-      <c r="BR58" s="1"/>
-      <c r="BS58" s="1"/>
-      <c r="BT58" s="1"/>
-      <c r="BU58" s="1"/>
-      <c r="BV58" s="1"/>
-      <c r="BW58" s="1"/>
-      <c r="BX58" s="1"/>
-      <c r="BY58" s="1"/>
-      <c r="BZ58" s="1"/>
-      <c r="CA58" s="1"/>
-      <c r="CB58" s="1"/>
-      <c r="CC58" s="1"/>
-      <c r="CD58" s="1"/>
-      <c r="CE58" s="1"/>
-      <c r="CF58" s="1"/>
-      <c r="CG58" s="1"/>
-      <c r="CH58" s="1"/>
-      <c r="CI58" s="1"/>
-      <c r="CJ58" s="1"/>
-      <c r="CK58" s="1"/>
-      <c r="CL58" s="1"/>
-      <c r="CM58" s="1"/>
-      <c r="CN58" s="1"/>
-      <c r="CO58" s="1"/>
-      <c r="CP58" s="1"/>
-      <c r="CQ58" s="1"/>
-      <c r="CR58" s="1"/>
-      <c r="CS58" s="1"/>
-      <c r="CT58" s="1"/>
-      <c r="CU58" s="1"/>
-      <c r="CV58" s="1"/>
-      <c r="CW58" s="1"/>
-      <c r="CX58" s="1"/>
-      <c r="CY58" s="1"/>
-      <c r="CZ58" s="1">
-        <v>100</v>
-      </c>
-      <c r="DA58" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB58" s="1">
-        <v>100</v>
-      </c>
-      <c r="DC58" s="1">
-        <v>0</v>
-      </c>
-      <c r="DD58" s="1">
-        <v>100</v>
-      </c>
-      <c r="DE58" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF58" s="1">
-        <v>100</v>
-      </c>
-      <c r="DG58" s="1">
-        <v>0</v>
-      </c>
-      <c r="DH58" s="1">
-        <v>73</v>
-      </c>
-      <c r="DI58" s="1">
-        <v>27</v>
-      </c>
-      <c r="DJ58" s="1">
-        <v>100</v>
-      </c>
-      <c r="DK58" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL58" s="1">
-        <v>100</v>
-      </c>
-      <c r="DM58" s="1">
-        <v>189</v>
-      </c>
-      <c r="DN58" s="1">
-        <v>100</v>
-      </c>
-      <c r="DO58" s="1">
-        <v>558</v>
-      </c>
-      <c r="DP58" s="1">
-        <v>27</v>
-      </c>
-      <c r="DQ58" s="1">
-        <v>27</v>
-      </c>
-      <c r="DR58" s="1">
-        <v>22</v>
-      </c>
-      <c r="DS58" s="1">
-        <v>99007088</v>
-      </c>
-      <c r="DT58" s="1"/>
-      <c r="DU58" s="1"/>
-      <c r="DV58" s="1">
-        <v>100</v>
-      </c>
-      <c r="DW58" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX58" s="1">
-        <v>100</v>
-      </c>
-      <c r="DY58" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ58" s="1">
-        <v>200</v>
-      </c>
-      <c r="EA58" s="1">
-        <v>0</v>
-      </c>
-      <c r="EB58" s="1"/>
-      <c r="EC58" s="1"/>
-      <c r="ED58" s="1"/>
-      <c r="EE58" s="1"/>
-      <c r="EF58" s="1"/>
-      <c r="EG58" s="1"/>
-      <c r="EH58" s="1"/>
-      <c r="EI58" s="1"/>
-      <c r="EJ58" s="1"/>
-      <c r="EK58" s="1"/>
-      <c r="EL58" s="1"/>
-      <c r="EM58" s="1"/>
-      <c r="EN58" s="1"/>
-      <c r="EO58" s="1"/>
-      <c r="EP58" s="1"/>
-      <c r="EQ58" s="1"/>
-      <c r="ER58" s="1"/>
-      <c r="ES58" s="1"/>
-      <c r="ET58" s="1"/>
-      <c r="EU58" s="1"/>
-      <c r="EV58" s="1"/>
-      <c r="EW58" s="1"/>
-      <c r="EX58" s="1"/>
-      <c r="EY58" s="1"/>
-      <c r="EZ58" s="1"/>
-      <c r="FA58" s="1"/>
-      <c r="FB58" s="1"/>
-      <c r="FC58" s="1"/>
-      <c r="FD58" s="1"/>
-      <c r="FE58" s="1"/>
-      <c r="FF58" s="1"/>
-      <c r="FG58" s="1"/>
-      <c r="FH58" s="1"/>
-      <c r="FI58" s="1"/>
-      <c r="FJ58" s="1"/>
-      <c r="FK58" s="1"/>
-      <c r="FL58" s="1"/>
-      <c r="FM58" s="1"/>
-      <c r="FN58" s="1"/>
-      <c r="FO58" s="1"/>
-      <c r="FP58" s="1">
-        <v>100</v>
-      </c>
-      <c r="FQ58" s="1">
-        <v>75433</v>
-      </c>
-      <c r="FR58" s="1">
-        <v>100</v>
-      </c>
-      <c r="FS58" s="1">
-        <v>124156486008</v>
-      </c>
-      <c r="FT58" s="1">
-        <v>100</v>
-      </c>
-      <c r="FU58" s="1">
-        <v>514073782392</v>
-      </c>
-    </row>
-    <row r="59" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>45658</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D59" s="1">
-        <v>8001563222016</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G59" s="1">
-        <v>0</v>
-      </c>
-      <c r="H59" s="1">
-        <v>1028</v>
-      </c>
-      <c r="I59" s="1">
-        <v>16</v>
-      </c>
-      <c r="J59" s="1">
-        <v>23</v>
-      </c>
-      <c r="K59" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" s="1">
-        <v>77</v>
-      </c>
-      <c r="M59" s="1">
-        <v>49092336</v>
-      </c>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1">
-        <v>84</v>
-      </c>
-      <c r="Q59" s="1">
-        <v>0</v>
-      </c>
-      <c r="R59" s="1">
-        <v>100</v>
-      </c>
-      <c r="S59" s="1">
-        <v>9</v>
-      </c>
-      <c r="T59" s="1">
-        <v>100</v>
-      </c>
-      <c r="U59" s="1">
-        <v>0</v>
-      </c>
-      <c r="V59" s="1">
-        <v>87</v>
-      </c>
-      <c r="W59" s="1">
-        <v>536359124</v>
-      </c>
-      <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1">
-        <v>14</v>
-      </c>
-      <c r="AA59" s="1">
-        <v>75436</v>
-      </c>
-      <c r="AB59" s="1">
-        <v>100</v>
-      </c>
-      <c r="AC59" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD59" s="1"/>
-      <c r="AE59" s="1"/>
-      <c r="AF59" s="1">
-        <v>100</v>
-      </c>
-      <c r="AG59" s="1">
-        <v>9</v>
-      </c>
-      <c r="AH59" s="1"/>
-      <c r="AI59" s="1"/>
-      <c r="AJ59" s="1"/>
-      <c r="AK59" s="1"/>
-      <c r="AL59" s="1"/>
-      <c r="AM59" s="1"/>
-      <c r="AN59" s="1"/>
-      <c r="AO59" s="1"/>
-      <c r="AP59" s="1"/>
-      <c r="AQ59" s="1"/>
-      <c r="AR59" s="1"/>
-      <c r="AS59" s="1"/>
-      <c r="AT59" s="1"/>
-      <c r="AU59" s="1"/>
-      <c r="AV59" s="1"/>
-      <c r="AW59" s="1"/>
-      <c r="AX59" s="1"/>
-      <c r="AY59" s="1"/>
-      <c r="AZ59" s="1"/>
-      <c r="BA59" s="1"/>
-      <c r="BB59" s="1"/>
-      <c r="BC59" s="1"/>
-      <c r="BD59" s="1"/>
-      <c r="BE59" s="1"/>
-      <c r="BF59" s="1"/>
-      <c r="BG59" s="1"/>
-      <c r="BH59" s="1"/>
-      <c r="BI59" s="1"/>
-      <c r="BJ59" s="1"/>
-      <c r="BK59" s="1"/>
-      <c r="BL59" s="1"/>
-      <c r="BM59" s="1"/>
-      <c r="BN59" s="1"/>
-      <c r="BO59" s="1"/>
-      <c r="BP59" s="1"/>
-      <c r="BQ59" s="1"/>
-      <c r="BR59" s="1"/>
-      <c r="BS59" s="1"/>
-      <c r="BT59" s="1"/>
-      <c r="BU59" s="1"/>
-      <c r="BV59" s="1"/>
-      <c r="BW59" s="1"/>
-      <c r="BX59" s="1"/>
-      <c r="BY59" s="1"/>
-      <c r="BZ59" s="1"/>
-      <c r="CA59" s="1"/>
-      <c r="CB59" s="1"/>
-      <c r="CC59" s="1"/>
-      <c r="CD59" s="1"/>
-      <c r="CE59" s="1"/>
-      <c r="CF59" s="1"/>
-      <c r="CG59" s="1"/>
-      <c r="CH59" s="1"/>
-      <c r="CI59" s="1"/>
-      <c r="CJ59" s="1"/>
-      <c r="CK59" s="1"/>
-      <c r="CL59" s="1"/>
-      <c r="CM59" s="1"/>
-      <c r="CN59" s="1"/>
-      <c r="CO59" s="1"/>
-      <c r="CP59" s="1"/>
-      <c r="CQ59" s="1"/>
-      <c r="CR59" s="1"/>
-      <c r="CS59" s="1"/>
-      <c r="CT59" s="1"/>
-      <c r="CU59" s="1"/>
-      <c r="CV59" s="1"/>
-      <c r="CW59" s="1"/>
-      <c r="CX59" s="1"/>
-      <c r="CY59" s="1"/>
-      <c r="CZ59" s="1">
-        <v>100</v>
-      </c>
-      <c r="DA59" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB59" s="1">
-        <v>100</v>
-      </c>
-      <c r="DC59" s="1">
-        <v>0</v>
-      </c>
-      <c r="DD59" s="1">
-        <v>100</v>
-      </c>
-      <c r="DE59" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF59" s="1">
-        <v>100</v>
-      </c>
-      <c r="DG59" s="1">
-        <v>0</v>
-      </c>
-      <c r="DH59" s="1">
-        <v>67</v>
-      </c>
-      <c r="DI59" s="1">
-        <v>33</v>
-      </c>
-      <c r="DJ59" s="1">
-        <v>100</v>
-      </c>
-      <c r="DK59" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL59" s="1">
-        <v>100</v>
-      </c>
-      <c r="DM59" s="1">
-        <v>197</v>
-      </c>
-      <c r="DN59" s="1">
-        <v>100</v>
-      </c>
-      <c r="DO59" s="1">
-        <v>503</v>
-      </c>
-      <c r="DP59" s="1">
-        <v>33</v>
-      </c>
-      <c r="DQ59" s="1">
-        <v>33</v>
-      </c>
-      <c r="DR59" s="1">
-        <v>1</v>
-      </c>
-      <c r="DS59" s="1">
-        <v>49092336</v>
-      </c>
-      <c r="DT59" s="1"/>
-      <c r="DU59" s="1"/>
-      <c r="DV59" s="1">
-        <v>100</v>
-      </c>
-      <c r="DW59" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX59" s="1">
-        <v>100</v>
-      </c>
-      <c r="DY59" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ59" s="1">
-        <v>200</v>
-      </c>
-      <c r="EA59" s="1">
-        <v>0</v>
-      </c>
-      <c r="EB59" s="1"/>
-      <c r="EC59" s="1"/>
-      <c r="ED59" s="1"/>
-      <c r="EE59" s="1"/>
-      <c r="EF59" s="1"/>
-      <c r="EG59" s="1"/>
-      <c r="EH59" s="1"/>
-      <c r="EI59" s="1"/>
-      <c r="EJ59" s="1"/>
-      <c r="EK59" s="1"/>
-      <c r="EL59" s="1"/>
-      <c r="EM59" s="1"/>
-      <c r="EN59" s="1"/>
-      <c r="EO59" s="1"/>
-      <c r="EP59" s="1"/>
-      <c r="EQ59" s="1"/>
-      <c r="ER59" s="1"/>
-      <c r="ES59" s="1"/>
-      <c r="ET59" s="1"/>
-      <c r="EU59" s="1"/>
-      <c r="EV59" s="1"/>
-      <c r="EW59" s="1"/>
-      <c r="EX59" s="1"/>
-      <c r="EY59" s="1"/>
-      <c r="EZ59" s="1"/>
-      <c r="FA59" s="1"/>
-      <c r="FB59" s="1"/>
-      <c r="FC59" s="1"/>
-      <c r="FD59" s="1"/>
-      <c r="FE59" s="1"/>
-      <c r="FF59" s="1"/>
-      <c r="FG59" s="1"/>
-      <c r="FH59" s="1"/>
-      <c r="FI59" s="1"/>
-      <c r="FJ59" s="1"/>
-      <c r="FK59" s="1"/>
-      <c r="FL59" s="1"/>
-      <c r="FM59" s="1"/>
-      <c r="FN59" s="1"/>
-      <c r="FO59" s="1"/>
-      <c r="FP59" s="1">
-        <v>100</v>
-      </c>
-      <c r="FQ59" s="1">
-        <v>75411</v>
-      </c>
-      <c r="FR59" s="1">
-        <v>100</v>
-      </c>
-      <c r="FS59" s="1">
-        <v>122414206512</v>
-      </c>
-      <c r="FT59" s="1">
-        <v>100</v>
-      </c>
-      <c r="FU59" s="1">
-        <v>574534260344</v>
-      </c>
-    </row>
-    <row r="60" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>45658</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D60" s="1">
-        <v>8001563222016</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0</v>
-      </c>
-      <c r="H60" s="1">
-        <v>1028</v>
-      </c>
-      <c r="I60" s="1">
-        <v>4</v>
-      </c>
-      <c r="J60" s="1">
-        <v>34</v>
-      </c>
-      <c r="K60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" s="1">
-        <v>77</v>
-      </c>
-      <c r="M60" s="1">
-        <v>50840512</v>
-      </c>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1">
-        <v>84</v>
-      </c>
-      <c r="Q60" s="1">
-        <v>0</v>
-      </c>
-      <c r="R60" s="1">
-        <v>100</v>
-      </c>
-      <c r="S60" s="1">
-        <v>9</v>
-      </c>
-      <c r="T60" s="1">
-        <v>100</v>
-      </c>
-      <c r="U60" s="1">
-        <v>0</v>
-      </c>
-      <c r="V60" s="1">
-        <v>96</v>
-      </c>
-      <c r="W60" s="1">
-        <v>4250607800</v>
-      </c>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1">
-        <v>14</v>
-      </c>
-      <c r="AA60" s="1">
-        <v>75457</v>
-      </c>
-      <c r="AB60" s="1">
-        <v>100</v>
-      </c>
-      <c r="AC60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD60" s="1"/>
-      <c r="AE60" s="1"/>
-      <c r="AF60" s="1">
-        <v>100</v>
-      </c>
-      <c r="AG60" s="1">
-        <v>9</v>
-      </c>
-      <c r="AH60" s="1"/>
-      <c r="AI60" s="1"/>
-      <c r="AJ60" s="1"/>
-      <c r="AK60" s="1"/>
-      <c r="AL60" s="1"/>
-      <c r="AM60" s="1"/>
-      <c r="AN60" s="1"/>
-      <c r="AO60" s="1"/>
-      <c r="AP60" s="1"/>
-      <c r="AQ60" s="1"/>
-      <c r="AR60" s="1"/>
-      <c r="AS60" s="1"/>
-      <c r="AT60" s="1"/>
-      <c r="AU60" s="1"/>
-      <c r="AV60" s="1"/>
-      <c r="AW60" s="1"/>
-      <c r="AX60" s="1"/>
-      <c r="AY60" s="1"/>
-      <c r="AZ60" s="1"/>
-      <c r="BA60" s="1"/>
-      <c r="BB60" s="1"/>
-      <c r="BC60" s="1"/>
-      <c r="BD60" s="1"/>
-      <c r="BE60" s="1"/>
-      <c r="BF60" s="1"/>
-      <c r="BG60" s="1"/>
-      <c r="BH60" s="1"/>
-      <c r="BI60" s="1"/>
-      <c r="BJ60" s="1"/>
-      <c r="BK60" s="1"/>
-      <c r="BL60" s="1"/>
-      <c r="BM60" s="1"/>
-      <c r="BN60" s="1"/>
-      <c r="BO60" s="1"/>
-      <c r="BP60" s="1"/>
-      <c r="BQ60" s="1"/>
-      <c r="BR60" s="1"/>
-      <c r="BS60" s="1"/>
-      <c r="BT60" s="1"/>
-      <c r="BU60" s="1"/>
-      <c r="BV60" s="1"/>
-      <c r="BW60" s="1"/>
-      <c r="BX60" s="1"/>
-      <c r="BY60" s="1"/>
-      <c r="BZ60" s="1"/>
-      <c r="CA60" s="1"/>
-      <c r="CB60" s="1"/>
-      <c r="CC60" s="1"/>
-      <c r="CD60" s="1"/>
-      <c r="CE60" s="1"/>
-      <c r="CF60" s="1"/>
-      <c r="CG60" s="1"/>
-      <c r="CH60" s="1"/>
-      <c r="CI60" s="1"/>
-      <c r="CJ60" s="1"/>
-      <c r="CK60" s="1"/>
-      <c r="CL60" s="1"/>
-      <c r="CM60" s="1"/>
-      <c r="CN60" s="1"/>
-      <c r="CO60" s="1"/>
-      <c r="CP60" s="1"/>
-      <c r="CQ60" s="1"/>
-      <c r="CR60" s="1"/>
-      <c r="CS60" s="1"/>
-      <c r="CT60" s="1"/>
-      <c r="CU60" s="1"/>
-      <c r="CV60" s="1"/>
-      <c r="CW60" s="1"/>
-      <c r="CX60" s="1"/>
-      <c r="CY60" s="1"/>
-      <c r="CZ60" s="1">
-        <v>100</v>
-      </c>
-      <c r="DA60" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB60" s="1">
-        <v>100</v>
-      </c>
-      <c r="DC60" s="1">
-        <v>0</v>
-      </c>
-      <c r="DD60" s="1">
-        <v>100</v>
-      </c>
-      <c r="DE60" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF60" s="1">
-        <v>100</v>
-      </c>
-      <c r="DG60" s="1">
-        <v>0</v>
-      </c>
-      <c r="DH60" s="1">
-        <v>71</v>
-      </c>
-      <c r="DI60" s="1">
-        <v>29</v>
-      </c>
-      <c r="DJ60" s="1">
-        <v>100</v>
-      </c>
-      <c r="DK60" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL60" s="1">
-        <v>100</v>
-      </c>
-      <c r="DM60" s="1">
-        <v>189</v>
-      </c>
-      <c r="DN60" s="1">
-        <v>100</v>
-      </c>
-      <c r="DO60" s="1">
-        <v>552</v>
-      </c>
-      <c r="DP60" s="1">
-        <v>29</v>
-      </c>
-      <c r="DQ60" s="1">
-        <v>29</v>
-      </c>
-      <c r="DR60" s="1">
-        <v>1</v>
-      </c>
-      <c r="DS60" s="1">
-        <v>50840512</v>
-      </c>
-      <c r="DT60" s="1"/>
-      <c r="DU60" s="1"/>
-      <c r="DV60" s="1">
-        <v>100</v>
-      </c>
-      <c r="DW60" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX60" s="1">
-        <v>100</v>
-      </c>
-      <c r="DY60" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ60" s="1">
-        <v>200</v>
-      </c>
-      <c r="EA60" s="1">
-        <v>0</v>
-      </c>
-      <c r="EB60" s="1"/>
-      <c r="EC60" s="1"/>
-      <c r="ED60" s="1"/>
-      <c r="EE60" s="1"/>
-      <c r="EF60" s="1"/>
-      <c r="EG60" s="1"/>
-      <c r="EH60" s="1"/>
-      <c r="EI60" s="1"/>
-      <c r="EJ60" s="1"/>
-      <c r="EK60" s="1"/>
-      <c r="EL60" s="1"/>
-      <c r="EM60" s="1"/>
-      <c r="EN60" s="1"/>
-      <c r="EO60" s="1"/>
-      <c r="EP60" s="1"/>
-      <c r="EQ60" s="1"/>
-      <c r="ER60" s="1"/>
-      <c r="ES60" s="1"/>
-      <c r="ET60" s="1"/>
-      <c r="EU60" s="1"/>
-      <c r="EV60" s="1"/>
-      <c r="EW60" s="1"/>
-      <c r="EX60" s="1"/>
-      <c r="EY60" s="1"/>
-      <c r="EZ60" s="1"/>
-      <c r="FA60" s="1"/>
-      <c r="FB60" s="1"/>
-      <c r="FC60" s="1"/>
-      <c r="FD60" s="1"/>
-      <c r="FE60" s="1"/>
-      <c r="FF60" s="1"/>
-      <c r="FG60" s="1"/>
-      <c r="FH60" s="1"/>
-      <c r="FI60" s="1"/>
-      <c r="FJ60" s="1"/>
-      <c r="FK60" s="1"/>
-      <c r="FL60" s="1"/>
-      <c r="FM60" s="1"/>
-      <c r="FN60" s="1"/>
-      <c r="FO60" s="1"/>
-      <c r="FP60" s="1">
-        <v>100</v>
-      </c>
-      <c r="FQ60" s="1">
-        <v>75434</v>
-      </c>
-      <c r="FR60" s="1">
-        <v>100</v>
-      </c>
-      <c r="FS60" s="1">
-        <v>123159325504</v>
-      </c>
-      <c r="FT60" s="1">
-        <v>100</v>
-      </c>
-      <c r="FU60" s="1">
-        <v>500264192492</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
